--- a/Univ/template/sa7ab_Template.xlsx
+++ b/Univ/template/sa7ab_Template.xlsx
@@ -439,23 +439,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -475,6 +463,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="40" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -491,15 +518,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -508,31 +526,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="40" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="40" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -15008,40 +15008,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="56"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="49"/>
       <c r="K3" s="1"/>
       <c r="L3" s="2" t="s">
         <v>3</v>
@@ -15062,11 +15062,11 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="56"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="1"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -15105,80 +15105,80 @@
       <c r="Z4" s="5"/>
     </row>
     <row r="5" spans="2:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="43">
+      <c r="B5" s="39">
         <v>268.39299999999997</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="62" t="s">
+      <c r="G5" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="44"/>
-      <c r="J5" s="45"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="41"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="62" t="s">
+      <c r="L5" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="62" t="s">
+      <c r="M5" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="62" t="s">
+      <c r="N5" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="43" t="s">
+      <c r="O5" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="62" t="s">
+      <c r="P5" s="40"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="S5" s="43" t="s">
+      <c r="S5" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="T5" s="44"/>
-      <c r="U5" s="44"/>
-      <c r="V5" s="44"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="49" t="s">
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="Z5" s="50"/>
+      <c r="Z5" s="59"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="48"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="48"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="44"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="51"/>
-      <c r="Z6" s="52"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="61"/>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B7" s="7"/>
@@ -15210,63 +15210,63 @@
       <c r="AB7" s="8"/>
     </row>
     <row r="8" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="64"/>
-      <c r="Y8" s="64"/>
-      <c r="Z8" s="64"/>
-      <c r="AA8" s="64"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
       <c r="AB8" s="1"/>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="64"/>
-      <c r="Y9" s="64"/>
-      <c r="Z9" s="64"/>
-      <c r="AA9" s="64"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="38"/>
       <c r="AB9" s="9"/>
       <c r="AC9" s="10"/>
     </row>
@@ -15301,31 +15301,31 @@
     </row>
     <row r="11" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53"/>
-      <c r="W11" s="53"/>
-      <c r="X11" s="53"/>
-      <c r="Y11" s="53"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="62"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="62"/>
+      <c r="W11" s="62"/>
+      <c r="X11" s="62"/>
+      <c r="Y11" s="62"/>
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
       <c r="AB11" s="12"/>
@@ -15335,27 +15335,27 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="53"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="53"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="62"/>
+      <c r="Y12" s="62"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
@@ -15364,27 +15364,27 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="53"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="53"/>
-      <c r="Y13" s="53"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="62"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="62"/>
+      <c r="V13" s="62"/>
+      <c r="W13" s="62"/>
+      <c r="X13" s="62"/>
+      <c r="Y13" s="62"/>
       <c r="Z13" s="15"/>
       <c r="AA13" s="15"/>
       <c r="AB13" s="1"/>
@@ -15392,22 +15392,22 @@
     <row r="14" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="60"/>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="60"/>
-      <c r="R14" s="60"/>
-      <c r="S14" s="60"/>
-      <c r="T14" s="60"/>
-      <c r="U14" s="60"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
       <c r="V14" s="14"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
@@ -15420,37 +15420,37 @@
       <c r="B15" s="1"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="61"/>
-      <c r="S15" s="61"/>
-      <c r="T15" s="61"/>
-      <c r="U15" s="61"/>
-      <c r="V15" s="61"/>
-      <c r="W15" s="61"/>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="61"/>
-      <c r="Z15" s="61"/>
-      <c r="AA15" s="61"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="66"/>
+      <c r="T15" s="66"/>
+      <c r="U15" s="66"/>
+      <c r="V15" s="66"/>
+      <c r="W15" s="66"/>
+      <c r="X15" s="66"/>
+      <c r="Y15" s="66"/>
+      <c r="Z15" s="66"/>
+      <c r="AA15" s="66"/>
       <c r="AB15" s="1"/>
     </row>
     <row r="16" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="60"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -15506,39 +15506,39 @@
       <c r="AB17" s="1"/>
     </row>
     <row r="18" spans="2:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="57" t="s">
+      <c r="B18" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="57" t="s">
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="57" t="s">
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="58"/>
-      <c r="S18" s="58"/>
-      <c r="T18" s="58"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="58"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="58"/>
-      <c r="Y18" s="58"/>
-      <c r="Z18" s="58"/>
-      <c r="AA18" s="58"/>
-      <c r="AB18" s="59"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="64"/>
+      <c r="T18" s="64"/>
+      <c r="U18" s="64"/>
+      <c r="V18" s="64"/>
+      <c r="W18" s="64"/>
+      <c r="X18" s="64"/>
+      <c r="Y18" s="64"/>
+      <c r="Z18" s="64"/>
+      <c r="AA18" s="64"/>
+      <c r="AB18" s="65"/>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B19" s="16"/>
@@ -15583,12 +15583,12 @@
         <v>23</v>
       </c>
       <c r="F20" s="22"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="68"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="54"/>
       <c r="M20" s="23"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -15620,12 +15620,12 @@
         <v>23</v>
       </c>
       <c r="F21" s="22"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="68"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="54"/>
       <c r="M21" s="23"/>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -15657,12 +15657,12 @@
         <v>23</v>
       </c>
       <c r="F22" s="22"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="68"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="54"/>
       <c r="M22" s="23"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -15694,12 +15694,12 @@
         <v>23</v>
       </c>
       <c r="F23" s="22"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="68"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="54"/>
       <c r="M23" s="23"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -15731,12 +15731,12 @@
         <v>23</v>
       </c>
       <c r="F24" s="22"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="68"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="54"/>
       <c r="M24" s="23"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
@@ -15768,12 +15768,12 @@
         <v>23</v>
       </c>
       <c r="F25" s="22"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="68"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="54"/>
       <c r="M25" s="23"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
@@ -15805,12 +15805,12 @@
         <v>23</v>
       </c>
       <c r="F26" s="22"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="68"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="54"/>
       <c r="M26" s="23"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -15842,12 +15842,12 @@
         <v>23</v>
       </c>
       <c r="F27" s="22"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="68"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="54"/>
       <c r="M27" s="23"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
@@ -15879,12 +15879,12 @@
         <v>23</v>
       </c>
       <c r="F28" s="22"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="68"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="54"/>
       <c r="M28" s="23"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
@@ -15916,12 +15916,12 @@
         <v>23</v>
       </c>
       <c r="F29" s="22"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="68"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="54"/>
       <c r="M29" s="23"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
@@ -15953,12 +15953,12 @@
         <v>23</v>
       </c>
       <c r="F30" s="22"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="68"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="54"/>
       <c r="M30" s="23"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
@@ -15982,12 +15982,12 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="22"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="39"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="68"/>
       <c r="M31" s="23"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
@@ -16006,33 +16006,33 @@
       <c r="AB31" s="22"/>
     </row>
     <row r="32" spans="2:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="54"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="55"/>
-      <c r="S32" s="55"/>
-      <c r="T32" s="55"/>
-      <c r="U32" s="55"/>
-      <c r="V32" s="55"/>
-      <c r="W32" s="55"/>
-      <c r="X32" s="55"/>
-      <c r="Y32" s="55"/>
-      <c r="Z32" s="55"/>
-      <c r="AA32" s="55"/>
-      <c r="AB32" s="56"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="48"/>
+      <c r="X32" s="48"/>
+      <c r="Y32" s="48"/>
+      <c r="Z32" s="48"/>
+      <c r="AA32" s="48"/>
+      <c r="AB32" s="49"/>
     </row>
     <row r="33" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="27" t="s">
@@ -16095,62 +16095,62 @@
       <c r="AB34" s="1"/>
     </row>
     <row r="35" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B35" s="54" t="s">
+      <c r="B35" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="55"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="54" t="s">
+      <c r="C35" s="48"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="54" t="s">
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="55"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="55"/>
-      <c r="S35" s="55"/>
-      <c r="T35" s="56"/>
-      <c r="U35" s="54" t="s">
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="48"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="48"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="V35" s="55"/>
-      <c r="W35" s="55"/>
-      <c r="X35" s="55"/>
-      <c r="Y35" s="55"/>
-      <c r="Z35" s="55"/>
-      <c r="AA35" s="55"/>
-      <c r="AB35" s="56"/>
+      <c r="V35" s="48"/>
+      <c r="W35" s="48"/>
+      <c r="X35" s="48"/>
+      <c r="Y35" s="48"/>
+      <c r="Z35" s="48"/>
+      <c r="AA35" s="48"/>
+      <c r="AB35" s="49"/>
     </row>
     <row r="36" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B36" s="40"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="42"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="41"/>
-      <c r="T36" s="42"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="56"/>
+      <c r="Q36" s="56"/>
+      <c r="R36" s="56"/>
+      <c r="S36" s="56"/>
+      <c r="T36" s="57"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
@@ -16190,15 +16190,15 @@
       <c r="AB37" s="1"/>
     </row>
     <row r="38" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="56"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="49"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -16418,17 +16418,23 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:AA9"/>
-    <mergeCell ref="B5:D6"/>
-    <mergeCell ref="J1:Z1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="E11:Y13"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:K36"/>
+    <mergeCell ref="M32:AB32"/>
+    <mergeCell ref="U35:AB35"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="G18:L18"/>
+    <mergeCell ref="M18:AB18"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F14:U14"/>
+    <mergeCell ref="E15:AA15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="G29:L29"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="L36:T36"/>
     <mergeCell ref="B38:H38"/>
     <mergeCell ref="G20:L20"/>
     <mergeCell ref="G21:L21"/>
@@ -16444,30 +16450,24 @@
     <mergeCell ref="G23:L23"/>
     <mergeCell ref="G26:L26"/>
     <mergeCell ref="G27:L27"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:AA9"/>
+    <mergeCell ref="B5:D6"/>
+    <mergeCell ref="J1:Z1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
     <mergeCell ref="Y5:Z6"/>
     <mergeCell ref="O5:Q6"/>
     <mergeCell ref="H5:J6"/>
-    <mergeCell ref="E11:Y13"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:K36"/>
-    <mergeCell ref="M32:AB32"/>
-    <mergeCell ref="U35:AB35"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="G18:L18"/>
-    <mergeCell ref="M18:AB18"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F14:U14"/>
-    <mergeCell ref="E15:AA15"/>
-    <mergeCell ref="C16:D16"/>
     <mergeCell ref="N5:N6"/>
-    <mergeCell ref="G29:L29"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="L36:T36"/>
     <mergeCell ref="S5:X6"/>
-    <mergeCell ref="R5:R6"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="92" orientation="portrait" verticalDpi="180" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
